--- a/MEAN Stack.xlsx
+++ b/MEAN Stack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training Stuffs\Corporate Clients\Rigved Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2B849-F053-475B-8309-18E87CFE18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75A2A45-1A08-4D96-A632-2540D59652BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -1447,9 +1447,6 @@
     <t xml:space="preserve">Creating the routes </t>
   </si>
   <si>
-    <t xml:space="preserve"> Creating the controller placeholders </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Returning JSON from an Express request </t>
   </si>
   <si>
@@ -1496,9 +1493,6 @@
   </si>
   <si>
     <t xml:space="preserve">Deleting documents in MongoDB </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deleting a subdocument from MongoDB </t>
   </si>
   <si>
     <t xml:space="preserve">Consuming a REST API: Using an API from inside Express </t>
@@ -2298,6 +2292,12 @@
   </si>
   <si>
     <t>Flexbox and Responsive Web Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating the controller placeholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting a subdocument from MongoDB </t>
   </si>
 </sst>
 </file>
@@ -2988,10 +2988,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,31 +3011,31 @@
         <v>120</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3043,19 +3043,19 @@
         <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,13 +3063,13 @@
         <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3093,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -3106,145 +3106,145 @@
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="35" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="35" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="35" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="36" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="35" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="35" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="35" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="35" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="35" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="35" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="35" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="35" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="35" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="35" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
         <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,37 +3289,37 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,55 +3329,55 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,31 +3391,31 @@
     <row r="22" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="40" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3524,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,19 +3536,19 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43938F1C-F4EB-4F3A-97D4-C14236D34196}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3623,13 +3623,13 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6243,14 +6243,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F64AE5-F521-4FEF-9C52-BC388B510603}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B73" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -6358,31 +6358,31 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="35" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6394,7 +6394,7 @@
         <v>148</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,19 +6404,19 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,109 +6616,109 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="35" t="s">
-        <v>467</v>
+        <v>749</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="35" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6730,121 +6730,121 @@
         <v>87</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="35" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="35" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="35" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="35" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="35" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,37 +6856,37 @@
         <v>232</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6898,7 +6898,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6922,7 +6922,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>8</v>
@@ -6933,102 +6933,102 @@
         <v>120</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,67 +7036,67 @@
         <v>148</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,22 +7104,22 @@
         <v>81</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,37 +7127,37 @@
         <v>104</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,140 +7165,140 @@
         <v>87</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7306,57 +7306,57 @@
         <v>252</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7365,31 +7365,31 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="35" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="35" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="35" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,429 +7397,429 @@
         <v>353</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="35" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="35" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="35" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="35" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="35" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="35" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="35" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="35" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="35" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="35" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="35" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="35" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="35" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="35" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="35" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="35" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="35" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="35" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="35" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="35" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="35" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="35" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="35" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="35" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="35" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="35" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="35" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="35" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="35" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="35" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="35" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -7831,7 +7831,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
